--- a/results/marketwatch_ipo.xlsx
+++ b/results/marketwatch_ipo.xlsx
@@ -1,27 +1,1466 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\StoreInfoWebCrawler\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA8D38-ADC3-45C0-BAF7-DE6EC5007AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="470">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Price Range</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Week Of</t>
+  </si>
+  <si>
+    <t>Date Retrieved</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Artius Acquisition</t>
+  </si>
+  <si>
+    <t>D8 Holdings</t>
+  </si>
+  <si>
+    <t>GoHealth</t>
+  </si>
+  <si>
+    <t>Malacca Straits Acquisition</t>
+  </si>
+  <si>
+    <t>nCino</t>
+  </si>
+  <si>
+    <t>PTK Acquisition</t>
+  </si>
+  <si>
+    <t>BlueCity Holdings</t>
+  </si>
+  <si>
+    <t>Inventiva</t>
+  </si>
+  <si>
+    <t>Nkarta</t>
+  </si>
+  <si>
+    <t>Poseida Therapeutics</t>
+  </si>
+  <si>
+    <t>Quhuo</t>
+  </si>
+  <si>
+    <t>Therapeutics Acquisition</t>
+  </si>
+  <si>
+    <t>Accolade</t>
+  </si>
+  <si>
+    <t>Capstar Special Purpose Acquisition</t>
+  </si>
+  <si>
+    <t>Dun &amp; Bradstreet Holdings</t>
+  </si>
+  <si>
+    <t>GS Acquisition Holdings II</t>
+  </si>
+  <si>
+    <t>Lemonade</t>
+  </si>
+  <si>
+    <t>Panacea Acquisition</t>
+  </si>
+  <si>
+    <t>ACell</t>
+  </si>
+  <si>
+    <t>ALX Oncology</t>
+  </si>
+  <si>
+    <t>Berkeley Lights</t>
+  </si>
+  <si>
+    <t>HPX Corp.</t>
+  </si>
+  <si>
+    <t>Pandion Therapeutics</t>
+  </si>
+  <si>
+    <t>Relay Therapeutics</t>
+  </si>
+  <si>
+    <t>Renalytix AI</t>
+  </si>
+  <si>
+    <t>Trean Insurance Group</t>
+  </si>
+  <si>
+    <t>Harbor Custom Development</t>
+  </si>
+  <si>
+    <t>Jamf Holding</t>
+  </si>
+  <si>
+    <t>Montrose Environmental Group</t>
+  </si>
+  <si>
+    <t>Skillful Craftsman Education Technology</t>
+  </si>
+  <si>
+    <t>1847 Goedeker</t>
+  </si>
+  <si>
+    <t>4D Molecular Therapeutics</t>
+  </si>
+  <si>
+    <t>ACE Convergence Acquisition</t>
+  </si>
+  <si>
+    <t>Acutus Medical</t>
+  </si>
+  <si>
+    <t>Addentax Group</t>
+  </si>
+  <si>
+    <t>AlloVir</t>
+  </si>
+  <si>
+    <t>Alpha Investment</t>
+  </si>
+  <si>
+    <t>Annexon</t>
+  </si>
+  <si>
+    <t>ArcherDX</t>
+  </si>
+  <si>
+    <t>Arog Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Ascendant Digital Acquisition</t>
+  </si>
+  <si>
+    <t>Atotech</t>
+  </si>
+  <si>
+    <t>BankFlorida</t>
+  </si>
+  <si>
+    <t>Baosheng Media Group Holdings</t>
+  </si>
+  <si>
+    <t>BigCommerce Holdings</t>
+  </si>
+  <si>
+    <t>BioVie</t>
+  </si>
+  <si>
+    <t>Bricktown Brewery Restaurants</t>
+  </si>
+  <si>
+    <t>Car House Holding</t>
+  </si>
+  <si>
+    <t>CC Neuberger Principal Holdings II</t>
+  </si>
+  <si>
+    <t>CDP Holdings</t>
+  </si>
+  <si>
+    <t>Centrexion Therapeutics</t>
+  </si>
+  <si>
+    <t>China Eco-Materials Group</t>
+  </si>
+  <si>
+    <t>Churchill Capital Corp IV</t>
+  </si>
+  <si>
+    <t>CloudMinds</t>
+  </si>
+  <si>
+    <t>CN Energy Group</t>
+  </si>
+  <si>
+    <t>Cole Haan</t>
+  </si>
+  <si>
+    <t>Cornerstone Management</t>
+  </si>
+  <si>
+    <t>Coro Global</t>
+  </si>
+  <si>
+    <t>Deerfield Healthcare Technology Acquisitions</t>
+  </si>
+  <si>
+    <t>dMY Technology Group II</t>
+  </si>
+  <si>
+    <t>Dragon Jade International</t>
+  </si>
+  <si>
+    <t>E.Merge Technology Acquisition</t>
+  </si>
+  <si>
+    <t>East Resources Acquisition</t>
+  </si>
+  <si>
+    <t>F5 Finishes</t>
+  </si>
+  <si>
+    <t>Fathom Holdings</t>
+  </si>
+  <si>
+    <t>Fit Boxx Holdings</t>
+  </si>
+  <si>
+    <t>Flux Power Holdings</t>
+  </si>
+  <si>
+    <t>Focus Universal</t>
+  </si>
+  <si>
+    <t>Fortis Minerals LLC</t>
+  </si>
+  <si>
+    <t>FreeCast</t>
+  </si>
+  <si>
+    <t>GBS</t>
+  </si>
+  <si>
+    <t>Generation Income Properties</t>
+  </si>
+  <si>
+    <t>Global Internet of People</t>
+  </si>
+  <si>
+    <t>GO Acquisition</t>
+  </si>
+  <si>
+    <t>Goxus</t>
+  </si>
+  <si>
+    <t>Greencity Acquisition</t>
+  </si>
+  <si>
+    <t>Greenwich LifeSciences</t>
+  </si>
+  <si>
+    <t>HeZhong International Holding</t>
+  </si>
+  <si>
+    <t>HF Enterprises</t>
+  </si>
+  <si>
+    <t>Hitek Global</t>
+  </si>
+  <si>
+    <t>IBEX</t>
+  </si>
+  <si>
+    <t>InMed Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Inozyme Pharma</t>
+  </si>
+  <si>
+    <t>iTeos Therapeutics</t>
+  </si>
+  <si>
+    <t>Jiana Science and Technology</t>
+  </si>
+  <si>
+    <t>Kiromic BioPharma</t>
+  </si>
+  <si>
+    <t>Li Auto</t>
+  </si>
+  <si>
+    <t>Loha</t>
+  </si>
+  <si>
+    <t>Madewell Group</t>
+  </si>
+  <si>
+    <t>Meili Auto Holdings</t>
+  </si>
+  <si>
+    <t>MingZhu Logistics Holdings</t>
+  </si>
+  <si>
+    <t>MR2 Group</t>
+  </si>
+  <si>
+    <t>Muliang Agritech</t>
+  </si>
+  <si>
+    <t>NewHold Investment</t>
+  </si>
+  <si>
+    <t>NLS Pharmaceutics</t>
+  </si>
+  <si>
+    <t>Nurix Therapeutics</t>
+  </si>
+  <si>
+    <t>NuZee</t>
+  </si>
+  <si>
+    <t>Oak Street Health</t>
+  </si>
+  <si>
+    <t>Oriental Culture Holding</t>
+  </si>
+  <si>
+    <t>PainReform</t>
+  </si>
+  <si>
+    <t>PaxMedica</t>
+  </si>
+  <si>
+    <t>Pershing Square Tontine Holdings</t>
+  </si>
+  <si>
+    <t>Presidio Property Trust</t>
+  </si>
+  <si>
+    <t>Priam Properties</t>
+  </si>
+  <si>
+    <t>Processa Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Procore Technologies</t>
+  </si>
+  <si>
+    <t>Property Solutions Acquisition</t>
+  </si>
+  <si>
+    <t>Qilian International Holding</t>
+  </si>
+  <si>
+    <t>Rackspace Technology</t>
+  </si>
+  <si>
+    <t>Rocket Companies</t>
+  </si>
+  <si>
+    <t>SolarMax Technology</t>
+  </si>
+  <si>
+    <t>Sun BioPharma</t>
+  </si>
+  <si>
+    <t>The OLB Group</t>
+  </si>
+  <si>
+    <t>TRX Insurance Brokers</t>
+  </si>
+  <si>
+    <t>Ucommune Group Holdings</t>
+  </si>
+  <si>
+    <t>Uranium Trading Corp.</t>
+  </si>
+  <si>
+    <t>UTime</t>
+  </si>
+  <si>
+    <t>UTXO Acquisition</t>
+  </si>
+  <si>
+    <t>Vasta Platform</t>
+  </si>
+  <si>
+    <t>Vertex</t>
+  </si>
+  <si>
+    <t>Vision Marine Technologies</t>
+  </si>
+  <si>
+    <t>Vistas Media Acquisition</t>
+  </si>
+  <si>
+    <t>Vital Farms</t>
+  </si>
+  <si>
+    <t>Whole Earth Brands</t>
+  </si>
+  <si>
+    <t>PCI Media</t>
+  </si>
+  <si>
+    <t>Pulmonx</t>
+  </si>
+  <si>
+    <t>Vontier</t>
+  </si>
+  <si>
+    <t>SeqLL</t>
+  </si>
+  <si>
+    <t>To Prosperity Technology</t>
+  </si>
+  <si>
+    <t>Safe Auto Insurance Group</t>
+  </si>
+  <si>
+    <t>Meten International Education Group</t>
+  </si>
+  <si>
+    <t>EnVen Energy</t>
+  </si>
+  <si>
+    <t>KCI Holdings</t>
+  </si>
+  <si>
+    <t>Riley Exploration Permian</t>
+  </si>
+  <si>
+    <t>Ardent Health Partners</t>
+  </si>
+  <si>
+    <t>Gateway Casinos &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>Valtech</t>
+  </si>
+  <si>
+    <t>Cirius Therapeutics</t>
+  </si>
+  <si>
+    <t>Exeter Finance</t>
+  </si>
+  <si>
+    <t>YX Asset Recovery</t>
+  </si>
+  <si>
+    <t>Telemynd</t>
+  </si>
+  <si>
+    <t>Inhibrx</t>
+  </si>
+  <si>
+    <t>Hylete</t>
+  </si>
+  <si>
+    <t>Karat Packaging</t>
+  </si>
+  <si>
+    <t>Endeavor Group Holdings</t>
+  </si>
+  <si>
+    <t>ADC Therapeutics</t>
+  </si>
+  <si>
+    <t>The We Company</t>
+  </si>
+  <si>
+    <t>BI Acquisition</t>
+  </si>
+  <si>
+    <t>Dermavant Sciences</t>
+  </si>
+  <si>
+    <t>The Parking REIT</t>
+  </si>
+  <si>
+    <t>G Medical Innovations Holdings</t>
+  </si>
+  <si>
+    <t>Samoyed Holding</t>
+  </si>
+  <si>
+    <t>Ondas Holdings</t>
+  </si>
+  <si>
+    <t>Flowr</t>
+  </si>
+  <si>
+    <t>AACQU</t>
+  </si>
+  <si>
+    <t>DEH.U</t>
+  </si>
+  <si>
+    <t>GOCO</t>
+  </si>
+  <si>
+    <t>MLACU</t>
+  </si>
+  <si>
+    <t>NCNO</t>
+  </si>
+  <si>
+    <t>PTK.U</t>
+  </si>
+  <si>
+    <t>BLCT</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>NKTX</t>
+  </si>
+  <si>
+    <t>PSTX</t>
+  </si>
+  <si>
+    <t>QH</t>
+  </si>
+  <si>
+    <t>TXAC</t>
+  </si>
+  <si>
+    <t>ACCD</t>
+  </si>
+  <si>
+    <t>CPSRU</t>
+  </si>
+  <si>
+    <t>DNB</t>
+  </si>
+  <si>
+    <t>GSAH.U</t>
+  </si>
+  <si>
+    <t>LMND</t>
+  </si>
+  <si>
+    <t>PANAU</t>
+  </si>
+  <si>
+    <t>ACLL</t>
+  </si>
+  <si>
+    <t>ALXO</t>
+  </si>
+  <si>
+    <t>BLI</t>
+  </si>
+  <si>
+    <t>HPX.U</t>
+  </si>
+  <si>
+    <t>PAND</t>
+  </si>
+  <si>
+    <t>RLAY</t>
+  </si>
+  <si>
+    <t>RNLX</t>
+  </si>
+  <si>
+    <t>TIG</t>
+  </si>
+  <si>
+    <t>HCDI</t>
+  </si>
+  <si>
+    <t>JAMF</t>
+  </si>
+  <si>
+    <t>MEG</t>
+  </si>
+  <si>
+    <t>EDTK</t>
+  </si>
+  <si>
+    <t>GOED</t>
+  </si>
+  <si>
+    <t>DDDD</t>
+  </si>
+  <si>
+    <t>ACEV.U</t>
+  </si>
+  <si>
+    <t>AFIB</t>
+  </si>
+  <si>
+    <t>ATXG</t>
+  </si>
+  <si>
+    <t>ALVR</t>
+  </si>
+  <si>
+    <t>ALPC</t>
+  </si>
+  <si>
+    <t>ANNX</t>
+  </si>
+  <si>
+    <t>RCHR</t>
+  </si>
+  <si>
+    <t>AROG</t>
+  </si>
+  <si>
+    <t>ACND.U</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>BFL</t>
+  </si>
+  <si>
+    <t>BIGC</t>
+  </si>
+  <si>
+    <t>BIVI</t>
+  </si>
+  <si>
+    <t>BEER</t>
+  </si>
+  <si>
+    <t>CARH</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>CNTX</t>
+  </si>
+  <si>
+    <t>ZGHB</t>
+  </si>
+  <si>
+    <t>CCIV.U</t>
+  </si>
+  <si>
+    <t>CMDS</t>
+  </si>
+  <si>
+    <t>CNEY</t>
+  </si>
+  <si>
+    <t>CLHN</t>
+  </si>
+  <si>
+    <t>CSCA</t>
+  </si>
+  <si>
+    <t>CORO</t>
+  </si>
+  <si>
+    <t>DFHTU</t>
+  </si>
+  <si>
+    <t>DMYD.U</t>
+  </si>
+  <si>
+    <t>DGJI</t>
+  </si>
+  <si>
+    <t>ETACU</t>
+  </si>
+  <si>
+    <t>ERES.U</t>
+  </si>
+  <si>
+    <t>FLRZ</t>
+  </si>
+  <si>
+    <t>FTHM</t>
+  </si>
+  <si>
+    <t>FBOX</t>
+  </si>
+  <si>
+    <t>FLUX</t>
+  </si>
+  <si>
+    <t>FCUV</t>
+  </si>
+  <si>
+    <t>NRI</t>
+  </si>
+  <si>
+    <t>FCST</t>
+  </si>
+  <si>
+    <t>GBSG</t>
+  </si>
+  <si>
+    <t>GIPR</t>
+  </si>
+  <si>
+    <t>SDH</t>
+  </si>
+  <si>
+    <t>GOXS</t>
+  </si>
+  <si>
+    <t>GRCYU</t>
+  </si>
+  <si>
+    <t>GLSI</t>
+  </si>
+  <si>
+    <t>HZ</t>
+  </si>
+  <si>
+    <t>HFEN</t>
+  </si>
+  <si>
+    <t>HKIT</t>
+  </si>
+  <si>
+    <t>INM</t>
+  </si>
+  <si>
+    <t>INZY</t>
+  </si>
+  <si>
+    <t>ITOS</t>
+  </si>
+  <si>
+    <t>JANA</t>
+  </si>
+  <si>
+    <t>KRBP</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LOHA</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>YGMZ</t>
+  </si>
+  <si>
+    <t>MRMR</t>
+  </si>
+  <si>
+    <t>MULG</t>
+  </si>
+  <si>
+    <t>NHICU</t>
+  </si>
+  <si>
+    <t>NLSP</t>
+  </si>
+  <si>
+    <t>NRIX</t>
+  </si>
+  <si>
+    <t>NUZE</t>
+  </si>
+  <si>
+    <t>OSH</t>
+  </si>
+  <si>
+    <t>OCG</t>
+  </si>
+  <si>
+    <t>PRFX</t>
+  </si>
+  <si>
+    <t>PXMD</t>
+  </si>
+  <si>
+    <t>PSTH.U</t>
+  </si>
+  <si>
+    <t>SQFT</t>
+  </si>
+  <si>
+    <t>PRMI</t>
+  </si>
+  <si>
+    <t>PCSA</t>
+  </si>
+  <si>
+    <t>PCOR</t>
+  </si>
+  <si>
+    <t>PSACU</t>
+  </si>
+  <si>
+    <t>QLI</t>
+  </si>
+  <si>
+    <t>RXT</t>
+  </si>
+  <si>
+    <t>RKT</t>
+  </si>
+  <si>
+    <t>SMXT</t>
+  </si>
+  <si>
+    <t>SNBP</t>
+  </si>
+  <si>
+    <t>OLB</t>
+  </si>
+  <si>
+    <t>TIRX</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>UTME</t>
+  </si>
+  <si>
+    <t>UTXOU</t>
+  </si>
+  <si>
+    <t>VERX</t>
+  </si>
+  <si>
+    <t>VMAR</t>
+  </si>
+  <si>
+    <t>VMACU</t>
+  </si>
+  <si>
+    <t>VITL</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>PCIM.U</t>
+  </si>
+  <si>
+    <t>LUNG</t>
+  </si>
+  <si>
+    <t>VNT</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>BCHT</t>
+  </si>
+  <si>
+    <t>SAIG</t>
+  </si>
+  <si>
+    <t>MEDU</t>
+  </si>
+  <si>
+    <t>ENVN</t>
+  </si>
+  <si>
+    <t>REPX</t>
+  </si>
+  <si>
+    <t>ARDT</t>
+  </si>
+  <si>
+    <t>GTWY.XX</t>
+  </si>
+  <si>
+    <t>VTEC</t>
+  </si>
+  <si>
+    <t>CSTX</t>
+  </si>
+  <si>
+    <t>XTF</t>
+  </si>
+  <si>
+    <t>YXR</t>
+  </si>
+  <si>
+    <t>PSYC</t>
+  </si>
+  <si>
+    <t>INBX</t>
+  </si>
+  <si>
+    <t>HYLT</t>
+  </si>
+  <si>
+    <t>KRAT</t>
+  </si>
+  <si>
+    <t>EDR</t>
+  </si>
+  <si>
+    <t>ADCT.XX</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>BIACU</t>
+  </si>
+  <si>
+    <t>DRMT</t>
+  </si>
+  <si>
+    <t>PARK</t>
+  </si>
+  <si>
+    <t>GMVD</t>
+  </si>
+  <si>
+    <t>SMY</t>
+  </si>
+  <si>
+    <t>ONDS</t>
+  </si>
+  <si>
+    <t>FLWR</t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
+    <t>NYSE</t>
+  </si>
+  <si>
+    <t>NYSE American</t>
+  </si>
+  <si>
+    <t>$10.00</t>
+  </si>
+  <si>
+    <t>$21.00</t>
+  </si>
+  <si>
+    <t>$31.00</t>
+  </si>
+  <si>
+    <t>$16.00</t>
+  </si>
+  <si>
+    <t>$14.40</t>
+  </si>
+  <si>
+    <t>$18.00</t>
+  </si>
+  <si>
+    <t>$22.00</t>
+  </si>
+  <si>
+    <t>$29.00</t>
+  </si>
+  <si>
+    <t>$14.00 - $16.00</t>
+  </si>
+  <si>
+    <t>$15.00 - $17.00</t>
+  </si>
+  <si>
+    <t>$16.00 - $18.00</t>
+  </si>
+  <si>
+    <t>$18.00 - $19.00</t>
+  </si>
+  <si>
+    <t>$14.22</t>
+  </si>
+  <si>
+    <t>$13.00 - $15.00</t>
+  </si>
+  <si>
+    <t>$6.00 - $8.00</t>
+  </si>
+  <si>
+    <t>$17.00 - $19.00</t>
+  </si>
+  <si>
+    <t>$4.50 - $5.50</t>
+  </si>
+  <si>
+    <t>$5.00</t>
+  </si>
+  <si>
+    <t>$9.50 - $10.50</t>
+  </si>
+  <si>
+    <t>$5.00 - $6.00</t>
+  </si>
+  <si>
+    <t>$7.00 - $9.00</t>
+  </si>
+  <si>
+    <t>$4.50</t>
+  </si>
+  <si>
+    <t>$4.00 - $5.00</t>
+  </si>
+  <si>
+    <t>$5.00 - $6.50</t>
+  </si>
+  <si>
+    <t>$9.00</t>
+  </si>
+  <si>
+    <t>$4.00 - $6.00</t>
+  </si>
+  <si>
+    <t>$8.00 - $10.00</t>
+  </si>
+  <si>
+    <t>$7.50 - $8.50</t>
+  </si>
+  <si>
+    <t>$4.00</t>
+  </si>
+  <si>
+    <t>$12.00 - $14.00</t>
+  </si>
+  <si>
+    <t>$5.00 - $7.00</t>
+  </si>
+  <si>
+    <t>$20.00</t>
+  </si>
+  <si>
+    <t>$7.60</t>
+  </si>
+  <si>
+    <t>$4.00 - $4.50</t>
+  </si>
+  <si>
+    <t>$10.00 - $12.00</t>
+  </si>
+  <si>
+    <t>$5.40 - $6.40</t>
+  </si>
+  <si>
+    <t>$7.75 - $9.75</t>
+  </si>
+  <si>
+    <t>$26.00 - $27.00</t>
+  </si>
+  <si>
+    <t>$23.00 - $26.00</t>
+  </si>
+  <si>
+    <t>$10.50</t>
+  </si>
+  <si>
+    <t>$6.50</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>Recently Priced</t>
+  </si>
+  <si>
+    <t>Upcoming Ipos</t>
+  </si>
+  <si>
+    <t>Future Ipos</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/aacqu?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/deh.u?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/goco?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/mlacu?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/ncno?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/ptk.u?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/blct?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/iva?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/nktx?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/pstx?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/qh?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/txac?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/accd?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/cpsru?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/dnb?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/gsah.u?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/lmnd?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/acll/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/alxo/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/bli/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/hpx.u/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/pand/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/rlay/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/rnlx/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/tig/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/hcdi/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/jamf/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/meg/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/edtk/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/goed/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/dddd/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/acev.u/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/afib/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/atxg/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/alvr/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/alpc/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/annx/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/rchr/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/acnd.u/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/atc/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock//ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/bigc/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/bivi/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/beer/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/carh/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/cdp/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/cntx/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/zghb/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/cciv.u/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/cmds/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/cney/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/clhn/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/csca/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/dfhtu/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/dmyd.u/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/dgji/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/etacu/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/eres.u/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/flrz/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/fthm/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/flux/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/fcuv/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/nri/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/fcst/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/gbsg/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/gipr/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/sdh/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/goxs/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/grcyu/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/glsi/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/hz/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/hfen/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/hkit/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/ibex/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/inm/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/inzy/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/itos/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/jana/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/krbp/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/li/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/loha/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/ml/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/ygmz/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/mrmr/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/mulg/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/nhicu/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/nlsp/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/nrix/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/nuze/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/osh/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/ocg/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/prfx/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/pxmd/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/psth.u/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/pcsa/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/pcor/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/psacu/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/qli/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/rxt/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/rkt/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/snbp/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/olb/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/tirx/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/uk/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/utme/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/utxou/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/verx/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/vmar/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/vmacu/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/vitl/ipo?mod=mw_ipocalendar</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/investing/stock/free/ipo?mod=mw_ipocalendar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +1471,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +1479,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +1570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +1602,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +1654,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,13 +1847,3826 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="77.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2">
+        <v>52500000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3">
+        <v>25000000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4">
+        <v>39500000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5">
+        <v>12500000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6">
+        <v>7625000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7">
+        <v>10000000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8">
+        <v>5300000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44018</v>
+      </c>
+      <c r="G8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" t="s">
+        <v>355</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9">
+        <v>7478261</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44018</v>
+      </c>
+      <c r="G9" t="s">
+        <v>354</v>
+      </c>
+      <c r="H9" t="s">
+        <v>355</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10">
+        <v>13000000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44018</v>
+      </c>
+      <c r="G10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11">
+        <v>14000000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44018</v>
+      </c>
+      <c r="G11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12">
+        <v>2700000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44018</v>
+      </c>
+      <c r="G12" t="s">
+        <v>354</v>
+      </c>
+      <c r="H12" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13">
+        <v>10000000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44018</v>
+      </c>
+      <c r="G13" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14">
+        <v>8750000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44011</v>
+      </c>
+      <c r="G14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H14" t="s">
+        <v>355</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15">
+        <v>20000000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44011</v>
+      </c>
+      <c r="G15" t="s">
+        <v>354</v>
+      </c>
+      <c r="H15" t="s">
+        <v>355</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16">
+        <v>65750000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44011</v>
+      </c>
+      <c r="G16" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" t="s">
+        <v>355</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17">
+        <v>70000000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44011</v>
+      </c>
+      <c r="G17" t="s">
+        <v>354</v>
+      </c>
+      <c r="H17" t="s">
+        <v>355</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18">
+        <v>11000000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44011</v>
+      </c>
+      <c r="G18" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" t="s">
+        <v>355</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19">
+        <v>12500000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44011</v>
+      </c>
+      <c r="G19" t="s">
+        <v>354</v>
+      </c>
+      <c r="H19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E20">
+        <v>5000000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H20" t="s">
+        <v>356</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21">
+        <v>8000000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H21" t="s">
+        <v>356</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E22">
+        <v>7400000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G22" t="s">
+        <v>354</v>
+      </c>
+      <c r="H22" t="s">
+        <v>356</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23">
+        <v>20000000</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H23" t="s">
+        <v>356</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24">
+        <v>5500000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G24" t="s">
+        <v>354</v>
+      </c>
+      <c r="H24" t="s">
+        <v>356</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25">
+        <v>20000000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G25" t="s">
+        <v>354</v>
+      </c>
+      <c r="H25" t="s">
+        <v>356</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26">
+        <v>5500000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G26" t="s">
+        <v>354</v>
+      </c>
+      <c r="H26" t="s">
+        <v>356</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" t="s">
+        <v>326</v>
+      </c>
+      <c r="E27">
+        <v>10714286</v>
+      </c>
+      <c r="F27" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G27" t="s">
+        <v>354</v>
+      </c>
+      <c r="H27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28">
+        <v>2142857</v>
+      </c>
+      <c r="F28" s="2">
+        <v>44032</v>
+      </c>
+      <c r="G28" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" t="s">
+        <v>356</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29">
+        <v>16000000</v>
+      </c>
+      <c r="F29" s="2">
+        <v>44032</v>
+      </c>
+      <c r="G29" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" t="s">
+        <v>356</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30">
+        <v>10000000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>44032</v>
+      </c>
+      <c r="G30" t="s">
+        <v>354</v>
+      </c>
+      <c r="H30" t="s">
+        <v>356</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E31">
+        <v>3000000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44032</v>
+      </c>
+      <c r="G31" t="s">
+        <v>354</v>
+      </c>
+      <c r="H31" t="s">
+        <v>356</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32">
+        <v>1000000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>354</v>
+      </c>
+      <c r="H32" t="s">
+        <v>357</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" t="s">
+        <v>354</v>
+      </c>
+      <c r="H33" t="s">
+        <v>357</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" t="s">
+        <v>313</v>
+      </c>
+      <c r="E34">
+        <v>20000000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>354</v>
+      </c>
+      <c r="H34" t="s">
+        <v>357</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" t="s">
+        <v>354</v>
+      </c>
+      <c r="H35" t="s">
+        <v>357</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D36" t="s">
+        <v>330</v>
+      </c>
+      <c r="E36">
+        <v>2000000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>354</v>
+      </c>
+      <c r="H36" t="s">
+        <v>357</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" t="s">
+        <v>354</v>
+      </c>
+      <c r="H37" t="s">
+        <v>357</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" t="s">
+        <v>354</v>
+      </c>
+      <c r="H38" t="s">
+        <v>357</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" t="s">
+        <v>354</v>
+      </c>
+      <c r="H39" t="s">
+        <v>357</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" t="s">
+        <v>354</v>
+      </c>
+      <c r="H40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" t="s">
+        <v>354</v>
+      </c>
+      <c r="H41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" t="s">
+        <v>313</v>
+      </c>
+      <c r="E42">
+        <v>30000000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>354</v>
+      </c>
+      <c r="H42" t="s">
+        <v>357</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" t="s">
+        <v>354</v>
+      </c>
+      <c r="H43" t="s">
+        <v>357</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" t="s">
+        <v>331</v>
+      </c>
+      <c r="E44">
+        <v>4200000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>354</v>
+      </c>
+      <c r="H44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45">
+        <v>5000000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>354</v>
+      </c>
+      <c r="H45" t="s">
+        <v>357</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
+        <v>310</v>
+      </c>
+      <c r="G46" t="s">
+        <v>354</v>
+      </c>
+      <c r="H46" t="s">
+        <v>357</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>310</v>
+      </c>
+      <c r="G47" t="s">
+        <v>354</v>
+      </c>
+      <c r="H47" t="s">
+        <v>357</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48">
+        <v>1875000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>354</v>
+      </c>
+      <c r="H48" t="s">
+        <v>357</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" t="s">
+        <v>310</v>
+      </c>
+      <c r="G49" t="s">
+        <v>354</v>
+      </c>
+      <c r="H49" t="s">
+        <v>357</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" t="s">
+        <v>313</v>
+      </c>
+      <c r="E50">
+        <v>60000000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>354</v>
+      </c>
+      <c r="H50" t="s">
+        <v>357</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" t="s">
+        <v>311</v>
+      </c>
+      <c r="G51" t="s">
+        <v>354</v>
+      </c>
+      <c r="H51" t="s">
+        <v>357</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" t="s">
+        <v>354</v>
+      </c>
+      <c r="H52" t="s">
+        <v>357</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" t="s">
+        <v>334</v>
+      </c>
+      <c r="E53">
+        <v>2222223</v>
+      </c>
+      <c r="G53" t="s">
+        <v>354</v>
+      </c>
+      <c r="H53" t="s">
+        <v>357</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D54" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54">
+        <v>100000000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>354</v>
+      </c>
+      <c r="H54" t="s">
+        <v>357</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" t="s">
+        <v>354</v>
+      </c>
+      <c r="H55" t="s">
+        <v>357</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" t="s">
+        <v>310</v>
+      </c>
+      <c r="D56" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56">
+        <v>5000000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>354</v>
+      </c>
+      <c r="H56" t="s">
+        <v>357</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" t="s">
+        <v>310</v>
+      </c>
+      <c r="G57" t="s">
+        <v>354</v>
+      </c>
+      <c r="H57" t="s">
+        <v>357</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" t="s">
+        <v>310</v>
+      </c>
+      <c r="G58" t="s">
+        <v>354</v>
+      </c>
+      <c r="H58" t="s">
+        <v>357</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" t="s">
+        <v>310</v>
+      </c>
+      <c r="G59" t="s">
+        <v>354</v>
+      </c>
+      <c r="H59" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60">
+        <v>12500000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>354</v>
+      </c>
+      <c r="H60" t="s">
+        <v>357</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D61" t="s">
+        <v>313</v>
+      </c>
+      <c r="E61">
+        <v>20000000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>354</v>
+      </c>
+      <c r="H61" t="s">
+        <v>357</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" t="s">
+        <v>310</v>
+      </c>
+      <c r="G62" t="s">
+        <v>354</v>
+      </c>
+      <c r="H62" t="s">
+        <v>357</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" t="s">
+        <v>313</v>
+      </c>
+      <c r="E63">
+        <v>50000000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>354</v>
+      </c>
+      <c r="H63" t="s">
+        <v>357</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" t="s">
+        <v>313</v>
+      </c>
+      <c r="E64">
+        <v>30000000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>354</v>
+      </c>
+      <c r="H64" t="s">
+        <v>357</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" t="s">
+        <v>330</v>
+      </c>
+      <c r="E65">
+        <v>4000000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>354</v>
+      </c>
+      <c r="H65" t="s">
+        <v>357</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" t="s">
+        <v>310</v>
+      </c>
+      <c r="G66" t="s">
+        <v>354</v>
+      </c>
+      <c r="H66" t="s">
+        <v>357</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67">
+        <v>2000000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>354</v>
+      </c>
+      <c r="H67" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" t="s">
+        <v>337</v>
+      </c>
+      <c r="E68">
+        <v>1449275</v>
+      </c>
+      <c r="G68" t="s">
+        <v>354</v>
+      </c>
+      <c r="H68" t="s">
+        <v>357</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" t="s">
+        <v>338</v>
+      </c>
+      <c r="E69">
+        <v>2000000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>354</v>
+      </c>
+      <c r="H69" t="s">
+        <v>357</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" t="s">
+        <v>311</v>
+      </c>
+      <c r="G70" t="s">
+        <v>354</v>
+      </c>
+      <c r="H70" t="s">
+        <v>357</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" t="s">
+        <v>310</v>
+      </c>
+      <c r="G71" t="s">
+        <v>354</v>
+      </c>
+      <c r="H71" t="s">
+        <v>357</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" t="s">
+        <v>357</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s">
+        <v>310</v>
+      </c>
+      <c r="G73" t="s">
+        <v>354</v>
+      </c>
+      <c r="H73" t="s">
+        <v>357</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74">
+        <v>5600000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>354</v>
+      </c>
+      <c r="H74" t="s">
+        <v>357</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>311</v>
+      </c>
+      <c r="D75" t="s">
+        <v>313</v>
+      </c>
+      <c r="E75">
+        <v>50000000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>354</v>
+      </c>
+      <c r="H75" t="s">
+        <v>357</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" t="s">
+        <v>339</v>
+      </c>
+      <c r="E76">
+        <v>1500000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>354</v>
+      </c>
+      <c r="H76" t="s">
+        <v>357</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" t="s">
+        <v>313</v>
+      </c>
+      <c r="E77">
+        <v>4000000</v>
+      </c>
+      <c r="G77" t="s">
+        <v>354</v>
+      </c>
+      <c r="H77" t="s">
+        <v>357</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" t="s">
+        <v>310</v>
+      </c>
+      <c r="D78" t="s">
+        <v>340</v>
+      </c>
+      <c r="E78">
+        <v>2685394</v>
+      </c>
+      <c r="G78" t="s">
+        <v>354</v>
+      </c>
+      <c r="H78" t="s">
+        <v>357</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" t="s">
+        <v>341</v>
+      </c>
+      <c r="E79">
+        <v>1250000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>354</v>
+      </c>
+      <c r="H79" t="s">
+        <v>357</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
+        <v>310</v>
+      </c>
+      <c r="D80" t="s">
+        <v>327</v>
+      </c>
+      <c r="E80">
+        <v>2600000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>354</v>
+      </c>
+      <c r="H80" t="s">
+        <v>357</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81">
+        <v>4000000</v>
+      </c>
+      <c r="G81" t="s">
+        <v>354</v>
+      </c>
+      <c r="H81" t="s">
+        <v>357</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>310</v>
+      </c>
+      <c r="G82" t="s">
+        <v>354</v>
+      </c>
+      <c r="H82" t="s">
+        <v>357</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" t="s">
+        <v>310</v>
+      </c>
+      <c r="G83" t="s">
+        <v>354</v>
+      </c>
+      <c r="H83" t="s">
+        <v>357</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" t="s">
+        <v>310</v>
+      </c>
+      <c r="G84" t="s">
+        <v>354</v>
+      </c>
+      <c r="H84" t="s">
+        <v>357</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" t="s">
+        <v>310</v>
+      </c>
+      <c r="G85" t="s">
+        <v>354</v>
+      </c>
+      <c r="H85" t="s">
+        <v>357</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" t="s">
+        <v>310</v>
+      </c>
+      <c r="G86" t="s">
+        <v>354</v>
+      </c>
+      <c r="H86" t="s">
+        <v>357</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" t="s">
+        <v>342</v>
+      </c>
+      <c r="E87">
+        <v>1923100</v>
+      </c>
+      <c r="G87" t="s">
+        <v>354</v>
+      </c>
+      <c r="H87" t="s">
+        <v>357</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" t="s">
+        <v>310</v>
+      </c>
+      <c r="G88" t="s">
+        <v>354</v>
+      </c>
+      <c r="H88" t="s">
+        <v>357</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" t="s">
+        <v>310</v>
+      </c>
+      <c r="D89" t="s">
+        <v>343</v>
+      </c>
+      <c r="E89">
+        <v>4285715</v>
+      </c>
+      <c r="G89" t="s">
+        <v>354</v>
+      </c>
+      <c r="H89" t="s">
+        <v>357</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>311</v>
+      </c>
+      <c r="G90" t="s">
+        <v>354</v>
+      </c>
+      <c r="H90" t="s">
+        <v>357</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" t="s">
+        <v>311</v>
+      </c>
+      <c r="G91" t="s">
+        <v>354</v>
+      </c>
+      <c r="H91" t="s">
+        <v>357</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" t="s">
+        <v>341</v>
+      </c>
+      <c r="E92">
+        <v>3000000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>354</v>
+      </c>
+      <c r="H92" t="s">
+        <v>357</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" t="s">
+        <v>310</v>
+      </c>
+      <c r="D93" t="s">
+        <v>333</v>
+      </c>
+      <c r="E93">
+        <v>1843750</v>
+      </c>
+      <c r="G93" t="s">
+        <v>354</v>
+      </c>
+      <c r="H93" t="s">
+        <v>357</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" t="s">
+        <v>310</v>
+      </c>
+      <c r="G94" t="s">
+        <v>354</v>
+      </c>
+      <c r="H94" t="s">
+        <v>357</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" t="s">
+        <v>310</v>
+      </c>
+      <c r="D95" t="s">
+        <v>313</v>
+      </c>
+      <c r="E95">
+        <v>15000000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>354</v>
+      </c>
+      <c r="H95" t="s">
+        <v>357</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" t="s">
+        <v>310</v>
+      </c>
+      <c r="G96" t="s">
+        <v>354</v>
+      </c>
+      <c r="H96" t="s">
+        <v>357</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>310</v>
+      </c>
+      <c r="G97" t="s">
+        <v>354</v>
+      </c>
+      <c r="H97" t="s">
+        <v>357</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" t="s">
+        <v>310</v>
+      </c>
+      <c r="D98" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98">
+        <v>700000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>354</v>
+      </c>
+      <c r="H98" t="s">
+        <v>357</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" t="s">
+        <v>311</v>
+      </c>
+      <c r="G99" t="s">
+        <v>354</v>
+      </c>
+      <c r="H99" t="s">
+        <v>357</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" t="s">
+        <v>310</v>
+      </c>
+      <c r="D100" t="s">
+        <v>341</v>
+      </c>
+      <c r="E100">
+        <v>5065000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>354</v>
+      </c>
+      <c r="H100" t="s">
+        <v>357</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" t="s">
+        <v>310</v>
+      </c>
+      <c r="G101" t="s">
+        <v>354</v>
+      </c>
+      <c r="H101" t="s">
+        <v>357</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" t="s">
+        <v>310</v>
+      </c>
+      <c r="G102" t="s">
+        <v>354</v>
+      </c>
+      <c r="H102" t="s">
+        <v>357</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" t="s">
+        <v>311</v>
+      </c>
+      <c r="D103" t="s">
+        <v>344</v>
+      </c>
+      <c r="E103">
+        <v>200000000</v>
+      </c>
+      <c r="G103" t="s">
+        <v>354</v>
+      </c>
+      <c r="H103" t="s">
+        <v>357</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" t="s">
+        <v>310</v>
+      </c>
+      <c r="D104" t="s">
+        <v>343</v>
+      </c>
+      <c r="E104">
+        <v>2500000</v>
+      </c>
+      <c r="G104" t="s">
+        <v>354</v>
+      </c>
+      <c r="H104" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" t="s">
+        <v>312</v>
+      </c>
+      <c r="G105" t="s">
+        <v>354</v>
+      </c>
+      <c r="H105" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>262</v>
+      </c>
+      <c r="C106" t="s">
+        <v>310</v>
+      </c>
+      <c r="G106" t="s">
+        <v>354</v>
+      </c>
+      <c r="H106" t="s">
+        <v>357</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" t="s">
+        <v>311</v>
+      </c>
+      <c r="G107" t="s">
+        <v>354</v>
+      </c>
+      <c r="H107" t="s">
+        <v>357</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" t="s">
+        <v>310</v>
+      </c>
+      <c r="D108" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108">
+        <v>20000000</v>
+      </c>
+      <c r="G108" t="s">
+        <v>354</v>
+      </c>
+      <c r="H108" t="s">
+        <v>357</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" t="s">
+        <v>311</v>
+      </c>
+      <c r="D109" t="s">
+        <v>343</v>
+      </c>
+      <c r="E109">
+        <v>4000000</v>
+      </c>
+      <c r="G109" t="s">
+        <v>354</v>
+      </c>
+      <c r="H109" t="s">
+        <v>357</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>266</v>
+      </c>
+      <c r="C110" t="s">
+        <v>310</v>
+      </c>
+      <c r="G110" t="s">
+        <v>354</v>
+      </c>
+      <c r="H110" t="s">
+        <v>357</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" t="s">
+        <v>311</v>
+      </c>
+      <c r="G111" t="s">
+        <v>354</v>
+      </c>
+      <c r="H111" t="s">
+        <v>357</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112" t="s">
+        <v>310</v>
+      </c>
+      <c r="D112" t="s">
+        <v>341</v>
+      </c>
+      <c r="E112">
+        <v>4000000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>354</v>
+      </c>
+      <c r="H112" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113" t="s">
+        <v>310</v>
+      </c>
+      <c r="G113" t="s">
+        <v>354</v>
+      </c>
+      <c r="H113" t="s">
+        <v>357</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" t="s">
+        <v>310</v>
+      </c>
+      <c r="D114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E114">
+        <v>657895</v>
+      </c>
+      <c r="G114" t="s">
+        <v>354</v>
+      </c>
+      <c r="H114" t="s">
+        <v>357</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>271</v>
+      </c>
+      <c r="C115" t="s">
+        <v>310</v>
+      </c>
+      <c r="D115" t="s">
+        <v>346</v>
+      </c>
+      <c r="E115">
+        <v>3000000</v>
+      </c>
+      <c r="G115" t="s">
+        <v>354</v>
+      </c>
+      <c r="H115" t="s">
+        <v>357</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>272</v>
+      </c>
+      <c r="C116" t="s">
+        <v>311</v>
+      </c>
+      <c r="G116" t="s">
+        <v>354</v>
+      </c>
+      <c r="H116" t="s">
+        <v>357</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" t="s">
+        <v>312</v>
+      </c>
+      <c r="D117" t="s">
+        <v>347</v>
+      </c>
+      <c r="E117">
+        <v>4545455</v>
+      </c>
+      <c r="G117" t="s">
+        <v>354</v>
+      </c>
+      <c r="H117" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>274</v>
+      </c>
+      <c r="C118" t="s">
+        <v>310</v>
+      </c>
+      <c r="D118" t="s">
+        <v>335</v>
+      </c>
+      <c r="E118">
+        <v>3750000</v>
+      </c>
+      <c r="G118" t="s">
+        <v>354</v>
+      </c>
+      <c r="H118" t="s">
+        <v>357</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
+        <v>275</v>
+      </c>
+      <c r="C119" t="s">
+        <v>310</v>
+      </c>
+      <c r="D119" t="s">
+        <v>313</v>
+      </c>
+      <c r="E119">
+        <v>5000000</v>
+      </c>
+      <c r="G119" t="s">
+        <v>354</v>
+      </c>
+      <c r="H119" t="s">
+        <v>357</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" t="s">
+        <v>310</v>
+      </c>
+      <c r="G120" t="s">
+        <v>354</v>
+      </c>
+      <c r="H120" t="s">
+        <v>357</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" t="s">
+        <v>310</v>
+      </c>
+      <c r="G121" t="s">
+        <v>354</v>
+      </c>
+      <c r="H121" t="s">
+        <v>357</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="s">
+        <v>277</v>
+      </c>
+      <c r="C122" t="s">
+        <v>310</v>
+      </c>
+      <c r="G122" t="s">
+        <v>354</v>
+      </c>
+      <c r="H122" t="s">
+        <v>357</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>278</v>
+      </c>
+      <c r="C123" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" t="s">
+        <v>313</v>
+      </c>
+      <c r="E123">
+        <v>10000000</v>
+      </c>
+      <c r="G123" t="s">
+        <v>354</v>
+      </c>
+      <c r="H123" t="s">
+        <v>357</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" t="s">
+        <v>310</v>
+      </c>
+      <c r="G124" t="s">
+        <v>354</v>
+      </c>
+      <c r="H124" t="s">
+        <v>357</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>280</v>
+      </c>
+      <c r="C125" t="s">
+        <v>310</v>
+      </c>
+      <c r="D125" t="s">
+        <v>313</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>354</v>
+      </c>
+      <c r="H125" t="s">
+        <v>357</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="s">
+        <v>281</v>
+      </c>
+      <c r="C126" t="s">
+        <v>310</v>
+      </c>
+      <c r="D126" t="s">
+        <v>327</v>
+      </c>
+      <c r="E126">
+        <v>2500000</v>
+      </c>
+      <c r="F126" s="2">
+        <v>44008</v>
+      </c>
+      <c r="G126" t="s">
+        <v>354</v>
+      </c>
+      <c r="H126" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
+        <v>282</v>
+      </c>
+      <c r="C127" t="s">
+        <v>310</v>
+      </c>
+      <c r="F127" s="2">
+        <v>43959</v>
+      </c>
+      <c r="G127" t="s">
+        <v>354</v>
+      </c>
+      <c r="H127" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" t="s">
+        <v>311</v>
+      </c>
+      <c r="F128" s="2">
+        <v>43951</v>
+      </c>
+      <c r="G128" t="s">
+        <v>354</v>
+      </c>
+      <c r="H128" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" t="s">
+        <v>348</v>
+      </c>
+      <c r="E129">
+        <v>1350000</v>
+      </c>
+      <c r="F129" s="2">
+        <v>43945</v>
+      </c>
+      <c r="G129" t="s">
+        <v>354</v>
+      </c>
+      <c r="H129" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" t="s">
+        <v>310</v>
+      </c>
+      <c r="F130" s="2">
+        <v>43928</v>
+      </c>
+      <c r="G130" t="s">
+        <v>354</v>
+      </c>
+      <c r="H130" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" t="s">
+        <v>310</v>
+      </c>
+      <c r="F131" s="2">
+        <v>43895</v>
+      </c>
+      <c r="G131" t="s">
+        <v>354</v>
+      </c>
+      <c r="H131" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="s">
+        <v>287</v>
+      </c>
+      <c r="C132" t="s">
+        <v>311</v>
+      </c>
+      <c r="F132" s="2">
+        <v>43894</v>
+      </c>
+      <c r="G132" t="s">
+        <v>354</v>
+      </c>
+      <c r="H132" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C133" t="s">
+        <v>311</v>
+      </c>
+      <c r="F133" s="2">
+        <v>43880</v>
+      </c>
+      <c r="G133" t="s">
+        <v>354</v>
+      </c>
+      <c r="H133" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="s">
+        <v>311</v>
+      </c>
+      <c r="F134" s="2">
+        <v>43865</v>
+      </c>
+      <c r="G134" t="s">
+        <v>354</v>
+      </c>
+      <c r="H134" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" t="s">
+        <v>311</v>
+      </c>
+      <c r="F135" s="2">
+        <v>43861</v>
+      </c>
+      <c r="G135" t="s">
+        <v>354</v>
+      </c>
+      <c r="H135" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>290</v>
+      </c>
+      <c r="C136" t="s">
+        <v>311</v>
+      </c>
+      <c r="F136" s="2">
+        <v>43838</v>
+      </c>
+      <c r="G136" t="s">
+        <v>354</v>
+      </c>
+      <c r="H136" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" t="s">
+        <v>311</v>
+      </c>
+      <c r="F137" s="2">
+        <v>43826</v>
+      </c>
+      <c r="G137" t="s">
+        <v>354</v>
+      </c>
+      <c r="H137" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
+        <v>292</v>
+      </c>
+      <c r="C138" t="s">
+        <v>310</v>
+      </c>
+      <c r="D138" t="s">
+        <v>321</v>
+      </c>
+      <c r="E138">
+        <v>6666667</v>
+      </c>
+      <c r="F138" s="2">
+        <v>43826</v>
+      </c>
+      <c r="G138" t="s">
+        <v>354</v>
+      </c>
+      <c r="H138" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" t="s">
+        <v>310</v>
+      </c>
+      <c r="F139" s="2">
+        <v>43819</v>
+      </c>
+      <c r="G139" t="s">
+        <v>354</v>
+      </c>
+      <c r="H139" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="s">
+        <v>294</v>
+      </c>
+      <c r="C140" t="s">
+        <v>311</v>
+      </c>
+      <c r="F140" s="2">
+        <v>43791</v>
+      </c>
+      <c r="G140" t="s">
+        <v>354</v>
+      </c>
+      <c r="H140" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="s">
+        <v>295</v>
+      </c>
+      <c r="C141" t="s">
+        <v>311</v>
+      </c>
+      <c r="D141" t="s">
+        <v>349</v>
+      </c>
+      <c r="E141">
+        <v>9282000</v>
+      </c>
+      <c r="F141" s="2">
+        <v>43791</v>
+      </c>
+      <c r="G141" t="s">
+        <v>354</v>
+      </c>
+      <c r="H141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" t="s">
+        <v>310</v>
+      </c>
+      <c r="E142">
+        <v>1550000</v>
+      </c>
+      <c r="F142" s="2">
+        <v>43784</v>
+      </c>
+      <c r="G142" t="s">
+        <v>354</v>
+      </c>
+      <c r="H142" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="s">
+        <v>297</v>
+      </c>
+      <c r="C143" t="s">
+        <v>310</v>
+      </c>
+      <c r="F143" s="2">
+        <v>43777</v>
+      </c>
+      <c r="G143" t="s">
+        <v>354</v>
+      </c>
+      <c r="H143" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" t="s">
+        <v>339</v>
+      </c>
+      <c r="E144">
+        <v>1666667</v>
+      </c>
+      <c r="F144" s="2">
+        <v>43776</v>
+      </c>
+      <c r="G144" t="s">
+        <v>354</v>
+      </c>
+      <c r="H144" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" t="s">
+        <v>310</v>
+      </c>
+      <c r="D145" t="s">
+        <v>333</v>
+      </c>
+      <c r="E145">
+        <v>5000000</v>
+      </c>
+      <c r="F145" s="2">
+        <v>43755</v>
+      </c>
+      <c r="G145" t="s">
+        <v>354</v>
+      </c>
+      <c r="H145" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="s">
+        <v>300</v>
+      </c>
+      <c r="C146" t="s">
+        <v>311</v>
+      </c>
+      <c r="D146" t="s">
+        <v>350</v>
+      </c>
+      <c r="E146">
+        <v>15000000</v>
+      </c>
+      <c r="F146" s="2">
+        <v>43754</v>
+      </c>
+      <c r="G146" t="s">
+        <v>354</v>
+      </c>
+      <c r="H146" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="s">
+        <v>301</v>
+      </c>
+      <c r="C147" t="s">
+        <v>311</v>
+      </c>
+      <c r="D147" t="s">
+        <v>351</v>
+      </c>
+      <c r="E147">
+        <v>8164000</v>
+      </c>
+      <c r="F147" s="2">
+        <v>43740</v>
+      </c>
+      <c r="G147" t="s">
+        <v>354</v>
+      </c>
+      <c r="H147" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" t="s">
+        <v>310</v>
+      </c>
+      <c r="F148" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G148" t="s">
+        <v>354</v>
+      </c>
+      <c r="H148" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" t="s">
+        <v>310</v>
+      </c>
+      <c r="D149" t="s">
+        <v>313</v>
+      </c>
+      <c r="E149">
+        <v>20000000</v>
+      </c>
+      <c r="F149" s="2">
+        <v>43731</v>
+      </c>
+      <c r="G149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H149" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" t="s">
+        <v>304</v>
+      </c>
+      <c r="C150" t="s">
+        <v>310</v>
+      </c>
+      <c r="D150" t="s">
+        <v>342</v>
+      </c>
+      <c r="E150">
+        <v>7700000</v>
+      </c>
+      <c r="F150" s="2">
+        <v>43714</v>
+      </c>
+      <c r="G150" t="s">
+        <v>354</v>
+      </c>
+      <c r="H150" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" t="s">
+        <v>310</v>
+      </c>
+      <c r="F151" s="2">
+        <v>43706</v>
+      </c>
+      <c r="G151" t="s">
+        <v>354</v>
+      </c>
+      <c r="H151" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" t="s">
+        <v>310</v>
+      </c>
+      <c r="D152" t="s">
+        <v>352</v>
+      </c>
+      <c r="E152">
+        <v>1428571</v>
+      </c>
+      <c r="F152" s="2">
+        <v>43698</v>
+      </c>
+      <c r="G152" t="s">
+        <v>354</v>
+      </c>
+      <c r="H152" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" t="s">
+        <v>311</v>
+      </c>
+      <c r="F153" s="2">
+        <v>43691</v>
+      </c>
+      <c r="G153" t="s">
+        <v>354</v>
+      </c>
+      <c r="H153" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" t="s">
+        <v>308</v>
+      </c>
+      <c r="C154" t="s">
+        <v>312</v>
+      </c>
+      <c r="D154" t="s">
+        <v>353</v>
+      </c>
+      <c r="E154">
+        <v>7230770</v>
+      </c>
+      <c r="F154" s="2">
+        <v>43678</v>
+      </c>
+      <c r="G154" t="s">
+        <v>354</v>
+      </c>
+      <c r="H154" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155" t="s">
+        <v>310</v>
+      </c>
+      <c r="F155" s="2">
+        <v>43668</v>
+      </c>
+      <c r="G155" t="s">
+        <v>354</v>
+      </c>
+      <c r="H155" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I46" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I50" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I55" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I60" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I61" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I62" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I63" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I64" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I65" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I66" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I68" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I69" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I70" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I71" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I72" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I73" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I74" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I75" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I76" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I77" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I78" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I79" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I80" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I81" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I82" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I83" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I84" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="I85" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I86" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I87" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I88" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="I89" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I90" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I91" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="I92" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="I93" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="I94" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="I95" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="I96" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I97" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I98" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="I99" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="I100" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="I101" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="I102" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="I103" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I106" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="I107" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="I108" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="I109" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I110" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I111" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="I113" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="I114" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="I115" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="I116" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="I118" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="I119" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="I120" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="I121" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="I122" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="I123" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="I124" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="I125" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>